--- a/knowledge-base/excel-postings/initiatives/FY 22/s1.w5/w5-workstream.initiatives.a6i.xlsx
+++ b/knowledge-base/excel-postings/initiatives/FY 22/s1.w5/w5-workstream.initiatives.a6i.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\test-knowledge-base\excel-postings\initiatives\FY 22\s1.w5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\test_db\knowledge-base\excel-postings\initiatives\FY 22\s1.w5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68D42ED-BBBC-4C80-A1A2-01CD18108E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B49FE95-1787-4CBA-896C-7341D486393D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{1C3C717C-D18E-4132-9B42-D7001AA1AE8F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{1C3C717C-D18E-4132-9B42-D7001AA1AE8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Posting Label" sheetId="2" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>scenario</t>
   </si>
   <si>
-    <t>environment</t>
-  </si>
-  <si>
     <t>Production</t>
   </si>
   <si>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t>workstream.initiatives.a6i.io/v1a</t>
+  </si>
+  <si>
+    <t>knowledgeBase</t>
   </si>
 </sst>
 </file>
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A4972C-970D-46AB-99FB-F8F744E44A98}">
   <dimension ref="B1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -898,10 +898,10 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
@@ -941,100 +941,100 @@
         <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="10">
         <v>44315</v>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1057,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE62272-EDE1-49CE-9DD5-2DAC624B869E}">
   <dimension ref="B1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
@@ -1079,7 +1079,7 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1090,44 +1090,44 @@
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="2:10" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -1140,7 +1140,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="24"/>
       <c r="F4" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -1151,13 +1151,13 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1168,13 +1168,13 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="25">
         <v>44377</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -1185,13 +1185,13 @@
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="25">
         <v>44409</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1204,7 +1204,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="25"/>
       <c r="F8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -1236,16 +1236,16 @@
     <row r="11" spans="2:10" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -1277,16 +1277,16 @@
     <row r="14" spans="2:10" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="E14" s="26">
         <v>44438</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -1299,7 +1299,7 @@
       <c r="D15" s="12"/>
       <c r="E15" s="22"/>
       <c r="F15" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1312,7 +1312,7 @@
       <c r="D16" s="12"/>
       <c r="E16" s="22"/>
       <c r="F16" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -1325,7 +1325,7 @@
       <c r="D17" s="12"/>
       <c r="E17" s="22"/>
       <c r="F17" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -1338,7 +1338,7 @@
       <c r="D18" s="12"/>
       <c r="E18" s="22"/>
       <c r="F18" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -1351,7 +1351,7 @@
       <c r="D19" s="12"/>
       <c r="E19" s="22"/>
       <c r="F19" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -1364,7 +1364,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="22"/>
       <c r="F20" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -1377,7 +1377,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="22"/>
       <c r="F21" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -1399,18 +1399,18 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="J23" s="14"/>
     </row>
@@ -1684,7 +1684,7 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B1" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -1698,37 +1698,37 @@
     </row>
     <row r="2" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="M2" s="18"/>
     </row>
@@ -1748,47 +1748,47 @@
     <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="H4" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="G5" s="20">
         <v>225.14258360000002</v>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.45">
@@ -1823,32 +1823,32 @@
     <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>74</v>
-      </c>
       <c r="G7" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.45">
@@ -1883,12 +1883,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="66517581-92a9-4cb0-981f-3f6c827c3504">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2103,23 +2108,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="66517581-92a9-4cb0-981f-3f6c827c3504">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F59924-779F-45B5-BAB0-46EB91D29C8C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6CD186-1AFD-40DE-A756-562BEC0234AA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="b2bdfb7b-0970-4105-9d2d-c277e29370c2"/>
+    <ds:schemaRef ds:uri="926ebc5c-f0cd-4127-a899-52ea4d1e07aa"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="66517581-92a9-4cb0-981f-3f6c827c3504"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2144,19 +2154,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6CD186-1AFD-40DE-A756-562BEC0234AA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F59924-779F-45B5-BAB0-46EB91D29C8C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b2bdfb7b-0970-4105-9d2d-c277e29370c2"/>
-    <ds:schemaRef ds:uri="926ebc5c-f0cd-4127-a899-52ea4d1e07aa"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="66517581-92a9-4cb0-981f-3f6c827c3504"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>